--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19940" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="账户管理" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -63,7 +63,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,59 +71,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,17 +84,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,24 +146,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,8 +175,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,19 +240,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,19 +306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +318,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,55 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,49 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,30 +609,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -649,21 +625,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -674,6 +635,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,153 +673,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,25 +866,25 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5521,7 +5521,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="19940" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="账户管理" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -70,31 +70,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,6 +84,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
@@ -113,18 +113,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,6 +139,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -153,16 +161,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,16 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,16 +198,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,13 +240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,31 +258,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,31 +294,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,31 +360,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,55 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,22 +619,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,32 +628,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -689,6 +648,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -703,194 +692,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,6 +904,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1131,14 +1140,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
+                    <c15:sqref>账户管理!$A$2:$A$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(账户管理!$A$2:$A$5,账户管理!$A$7)</c:f>
+              <c:f>(账户管理!$A$2:$A$5,账户管理!$A$7:$A$8)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -1154,6 +1163,9 @@
                 <c:pt idx="4" c:formatCode="yyyy\-m\-d">
                   <c:v>44524</c:v>
                 </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                  <c:v>44531</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1162,14 +1174,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>账户管理!$B$2:$B$7</c15:sqref>
+                    <c15:sqref>账户管理!$B$2:$B$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(账户管理!$B$2:$B$5,账户管理!$B$7)</c:f>
+              <c:f>(账户管理!$B$2:$B$5,账户管理!$B$7:$B$8)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>20000</c:v>
                 </c:pt>
@@ -1184,6 +1196,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>19831.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,16 +1260,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7:$A$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -1269,6 +1284,9 @@
                       </c:pt>
                       <c:pt idx="4" c:formatCode="yyyy\-m\-d">
                         <c:v>44524</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                        <c:v>44531</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1278,16 +1296,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$C$2:$C$7</c15:sqref>
+                          <c15:sqref>账户管理!$C$2:$C$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$C$2:$C$5,账户管理!$C$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$C$2:$C$5,账户管理!$C$7:$C$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>300</c:v>
                       </c:pt>
@@ -1302,6 +1320,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>297.4653</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>304.425</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1350,16 +1371,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7:$A$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -1374,6 +1395,9 @@
                       </c:pt>
                       <c:pt idx="4" c:formatCode="yyyy\-m\-d">
                         <c:v>44524</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                        <c:v>44531</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1383,16 +1407,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$D$2:$D$7</c15:sqref>
+                          <c15:sqref>账户管理!$D$2:$D$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$D$2:$D$5,账户管理!$D$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$D$2:$D$5,账户管理!$D$7:$D$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>1200</c:v>
                       </c:pt>
@@ -1407,6 +1431,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>1189.8612</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1217.7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1427,7 +1454,7 @@
         <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1442,7 +1469,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1651,7 +1678,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.138559733592341"/>
+          <c:y val="0.176839173822233"/>
+          <c:w val="0.815235188011655"/>
+          <c:h val="0.463541424924577"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1689,14 +1726,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
+                    <c15:sqref>账户管理!$A$2:$A$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(账户管理!$A$2:$A$5,账户管理!$A$7)</c:f>
+              <c:f>(账户管理!$A$2:$A$5,账户管理!$A$7:$A$8)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -1712,6 +1749,9 @@
                 <c:pt idx="4" c:formatCode="yyyy\-m\-d">
                   <c:v>44524</c:v>
                 </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                  <c:v>44531</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1720,14 +1760,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>账户管理!$C$2:$C$7</c15:sqref>
+                    <c15:sqref>账户管理!$C$2:$C$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(账户管理!$C$2:$C$5,账户管理!$C$7)</c:f>
+              <c:f>(账户管理!$C$2:$C$5,账户管理!$C$7:$C$8)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
@@ -1742,6 +1782,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>297.4653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304.425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,16 +1846,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7:$A$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -1827,6 +1870,9 @@
                       </c:pt>
                       <c:pt idx="4" c:formatCode="yyyy\-m\-d">
                         <c:v>44524</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                        <c:v>44531</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1836,16 +1882,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$B$2:$B$7</c15:sqref>
+                          <c15:sqref>账户管理!$B$2:$B$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$B$2:$B$5,账户管理!$B$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$B$2:$B$5,账户管理!$B$7:$B$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>20000</c:v>
                       </c:pt>
@@ -1860,6 +1906,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>19831.02</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1908,16 +1957,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7:$A$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -1932,6 +1981,9 @@
                       </c:pt>
                       <c:pt idx="4" c:formatCode="yyyy\-m\-d">
                         <c:v>44524</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                        <c:v>44531</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1941,16 +1993,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$D$2:$D$7</c15:sqref>
+                          <c15:sqref>账户管理!$D$2:$D$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$D$2:$D$5,账户管理!$D$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$D$2:$D$5,账户管理!$D$7:$D$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>1200</c:v>
                       </c:pt>
@@ -1965,6 +2017,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>1189.8612</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1217.7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2245,14 +2300,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
+                    <c15:sqref>账户管理!$A$2:$A$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(账户管理!$A$2:$A$5,账户管理!$A$7)</c:f>
+              <c:f>(账户管理!$A$2:$A$5,账户管理!$A$7:$A$8)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -2268,6 +2323,9 @@
                 <c:pt idx="4" c:formatCode="yyyy\-m\-d">
                   <c:v>44524</c:v>
                 </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                  <c:v>44531</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2276,14 +2334,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>账户管理!$D$2:$D$7</c15:sqref>
+                    <c15:sqref>账户管理!$D$2:$D$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(账户管理!$D$2:$D$5,账户管理!$D$7)</c:f>
+              <c:f>(账户管理!$D$2:$D$5,账户管理!$D$7:$D$8)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1200</c:v>
                 </c:pt>
@@ -2298,6 +2356,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1189.8612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1217.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2359,16 +2420,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7:$A$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2383,6 +2444,9 @@
                       </c:pt>
                       <c:pt idx="4" c:formatCode="yyyy\-m\-d">
                         <c:v>44524</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                        <c:v>44531</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2392,16 +2456,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$B$2:$B$7</c15:sqref>
+                          <c15:sqref>账户管理!$B$2:$B$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$B$2:$B$5,账户管理!$B$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$B$2:$B$5,账户管理!$B$7:$B$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>20000</c:v>
                       </c:pt>
@@ -2416,6 +2480,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>19831.02</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2464,16 +2531,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7:$A$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2488,6 +2555,9 @@
                       </c:pt>
                       <c:pt idx="4" c:formatCode="yyyy\-m\-d">
                         <c:v>44524</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                        <c:v>44531</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2497,16 +2567,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>账户管理!$C$2:$C$7</c15:sqref>
+                          <c15:sqref>账户管理!$C$2:$C$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(账户管理!$C$2:$C$5,账户管理!$C$7)</c15:sqref>
+                          <c15:sqref>(账户管理!$C$2:$C$5,账户管理!$C$7:$C$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>300</c:v>
                       </c:pt>
@@ -2521,6 +2591,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>297.4653</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>304.425</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4389,13 +4462,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>44450</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1141095</xdr:colOff>
+      <xdr:colOff>1128395</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>137795</xdr:rowOff>
     </xdr:to>
@@ -4405,7 +4478,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4707890" y="19685"/>
+        <a:off x="4695190" y="19685"/>
         <a:ext cx="4572000" cy="2444115"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4419,15 +4492,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>72390</xdr:colOff>
+      <xdr:colOff>67310</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:rowOff>201295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1156335</xdr:colOff>
+      <xdr:colOff>1151255</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4435,7 +4508,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4723130" y="2532380"/>
+        <a:off x="4718050" y="2527300"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4449,15 +4522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:colOff>73660</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>234315</xdr:rowOff>
+      <xdr:rowOff>233680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1158240</xdr:colOff>
+      <xdr:colOff>1157605</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
+      <xdr:rowOff>193040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4465,7 +4538,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4725035" y="5361305"/>
+        <a:off x="4724400" y="5360670"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5521,684 +5594,694 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3482142857143" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="16.3482142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.55" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>44489</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>20000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.015)</f>
         <v>300</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1200</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="17"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>44496</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>19880.77</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.015)</f>
         <v>298.21155</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <f>(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1192.8462</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="17"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>44503</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>19812.54</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.015)</f>
         <v>297.1881</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <f>(VLOOKUP(A4,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1188.7524</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>44510</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>19808.03</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.015)</f>
         <v>297.12045</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <f>(VLOOKUP(A5,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1188.4818</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="17"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>44517</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <f>(VLOOKUP(A6,$A$1:$D103,2,FALSE)*0.015)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <f>(VLOOKUP(A6,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="17"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>44524</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>19831.02</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.015)</f>
         <v>297.4653</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <f>(VLOOKUP(A7,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1189.8612</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="17"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>44531</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="17"/>
+      <c r="B8" s="9">
+        <v>20295</v>
+      </c>
+      <c r="C8" s="7">
+        <f>(VLOOKUP(A8,$A$1:$D105,2,FALSE)*0.015)</f>
+        <v>304.425</v>
+      </c>
+      <c r="D8" s="7">
+        <f>(VLOOKUP(A8,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>1217.7</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>44538</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>44545</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="17"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>44552</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>44559</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="17"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>44566</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>44573</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>44580</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>44587</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="17"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>44594</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="17"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>44601</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="17"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>44608</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>44615</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="17"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>44622</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>44629</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>44636</v>
       </c>
       <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="17"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>44643</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="17"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>44650</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="17"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>44657</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="17"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>44664</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="17"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>44671</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="17"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>44678</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="17"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>44685</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="17"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>44692</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="17"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>44699</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="17"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>44706</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="17"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="20"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>44713</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="17"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>44720</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="17"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>44727</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="17"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>44734</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="17"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>44741</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="17"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>44748</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="17"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="13"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="17"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="13"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="17"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="13"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="17"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="13"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="17"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="13"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="17"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="13"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="17"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="13"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="17"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="13"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="17"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="20"/>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="13"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="17"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="20"/>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="18"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19940" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="账户管理" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -69,8 +69,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,15 +144,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,23 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,82 +210,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,7 +240,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,19 +288,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,73 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,73 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,31 +619,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,21 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -703,150 +679,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1183,22 +1183,22 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19880.77</c:v>
+                  <c:v>29880.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19812.54</c:v>
+                  <c:v>29812.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19808.03</c:v>
+                  <c:v>29808.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19831.02</c:v>
+                  <c:v>29831.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20295</c:v>
+                  <c:v>30295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,22 +1307,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>300</c:v>
+                        <c:v>450</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>298.21155</c:v>
+                        <c:v>448.21155</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>297.1881</c:v>
+                        <c:v>447.1881</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>297.12045</c:v>
+                        <c:v>447.12045</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>297.4653</c:v>
+                        <c:v>447.4653</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>304.425</c:v>
+                        <c:v>454.425</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1418,22 +1418,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>1200</c:v>
+                        <c:v>1800</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1192.8462</c:v>
+                        <c:v>1792.8462</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1188.7524</c:v>
+                        <c:v>1788.7524</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1188.4818</c:v>
+                        <c:v>1788.4818</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1189.8612</c:v>
+                        <c:v>1789.8612</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1217.7</c:v>
+                        <c:v>1817.7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1769,22 +1769,22 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>298.21155</c:v>
+                  <c:v>448.21155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>297.1881</c:v>
+                  <c:v>447.1881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>297.12045</c:v>
+                  <c:v>447.12045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>297.4653</c:v>
+                  <c:v>447.4653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>304.425</c:v>
+                  <c:v>454.425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,22 +1893,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>20000</c:v>
+                        <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>19880.77</c:v>
+                        <c:v>29880.77</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>19812.54</c:v>
+                        <c:v>29812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>19808.03</c:v>
+                        <c:v>29808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>19831.02</c:v>
+                        <c:v>29831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>20295</c:v>
+                        <c:v>30295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2004,22 +2004,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>1200</c:v>
+                        <c:v>1800</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1192.8462</c:v>
+                        <c:v>1792.8462</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1188.7524</c:v>
+                        <c:v>1788.7524</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1188.4818</c:v>
+                        <c:v>1788.4818</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1189.8612</c:v>
+                        <c:v>1789.8612</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1217.7</c:v>
+                        <c:v>1817.7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2343,22 +2343,22 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1200</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1192.8462</c:v>
+                  <c:v>1792.8462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1188.7524</c:v>
+                  <c:v>1788.7524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1188.4818</c:v>
+                  <c:v>1788.4818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1189.8612</c:v>
+                  <c:v>1789.8612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1217.7</c:v>
+                  <c:v>1817.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2467,22 +2467,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>20000</c:v>
+                        <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>19880.77</c:v>
+                        <c:v>29880.77</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>19812.54</c:v>
+                        <c:v>29812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>19808.03</c:v>
+                        <c:v>29808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>19831.02</c:v>
+                        <c:v>29831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>20295</c:v>
+                        <c:v>30295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2578,22 +2578,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>300</c:v>
+                        <c:v>450</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>298.21155</c:v>
+                        <c:v>448.21155</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>297.1881</c:v>
+                        <c:v>447.1881</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>297.12045</c:v>
+                        <c:v>447.12045</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>297.4653</c:v>
+                        <c:v>447.4653</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>304.425</c:v>
+                        <c:v>454.425</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5594,7 +5594,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -5628,15 +5628,15 @@
         <v>44489</v>
       </c>
       <c r="B2" s="6">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C2" s="7">
         <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.015)</f>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="D2" s="7">
         <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="14"/>
@@ -5649,15 +5649,15 @@
         <v>44496</v>
       </c>
       <c r="B3" s="9">
-        <v>19880.77</v>
+        <v>29880.77</v>
       </c>
       <c r="C3" s="7">
         <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.015)</f>
-        <v>298.21155</v>
+        <v>448.21155</v>
       </c>
       <c r="D3" s="7">
         <f>(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1192.8462</v>
+        <v>1792.8462</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="14"/>
@@ -5670,15 +5670,15 @@
         <v>44503</v>
       </c>
       <c r="B4" s="9">
-        <v>19812.54</v>
+        <v>29812.54</v>
       </c>
       <c r="C4" s="7">
         <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.015)</f>
-        <v>297.1881</v>
+        <v>447.1881</v>
       </c>
       <c r="D4" s="7">
         <f>(VLOOKUP(A4,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1188.7524</v>
+        <v>1788.7524</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="14"/>
@@ -5691,15 +5691,15 @@
         <v>44510</v>
       </c>
       <c r="B5" s="9">
-        <v>19808.03</v>
+        <v>29808.03</v>
       </c>
       <c r="C5" s="7">
         <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.015)</f>
-        <v>297.12045</v>
+        <v>447.12045</v>
       </c>
       <c r="D5" s="7">
         <f>(VLOOKUP(A5,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1188.4818</v>
+        <v>1788.4818</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="14"/>
@@ -5733,15 +5733,15 @@
         <v>44524</v>
       </c>
       <c r="B7" s="9">
-        <v>19831.02</v>
+        <v>29831.02</v>
       </c>
       <c r="C7" s="7">
         <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.015)</f>
-        <v>297.4653</v>
+        <v>447.4653</v>
       </c>
       <c r="D7" s="7">
         <f>(VLOOKUP(A7,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1189.8612</v>
+        <v>1789.8612</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="14"/>
@@ -5754,15 +5754,15 @@
         <v>44531</v>
       </c>
       <c r="B8" s="9">
-        <v>20295</v>
+        <v>30295</v>
       </c>
       <c r="C8" s="7">
         <f>(VLOOKUP(A8,$A$1:$D105,2,FALSE)*0.015)</f>
-        <v>304.425</v>
+        <v>454.425</v>
       </c>
       <c r="D8" s="7">
         <f>(VLOOKUP(A8,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1217.7</v>
+        <v>1817.7</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="14"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -5594,7 +5594,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -69,18 +69,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,15 +99,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,11 +114,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,6 +147,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -145,26 +177,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,26 +206,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,7 +240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,18 +264,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,7 +276,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +312,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,19 +360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,31 +384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,61 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,30 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -669,17 +645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -697,6 +662,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -708,145 +708,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5594,7 +5594,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -35,9 +35,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -76,17 +76,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,14 +92,107 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,91 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,7 +240,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,13 +300,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,157 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,21 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -641,6 +626,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,21 +654,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -708,145 +708,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1183,22 +1183,22 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29880.77</c:v>
+                  <c:v>39880.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29812.54</c:v>
+                  <c:v>39812.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29808.03</c:v>
+                  <c:v>39808.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29831.02</c:v>
+                  <c:v>39831.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30295</c:v>
+                  <c:v>40295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,22 +1307,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>450</c:v>
+                        <c:v>600</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>448.21155</c:v>
+                        <c:v>598.21155</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>447.1881</c:v>
+                        <c:v>597.1881</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>447.12045</c:v>
+                        <c:v>597.12045</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>447.4653</c:v>
+                        <c:v>597.4653</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>454.425</c:v>
+                        <c:v>604.425</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1418,22 +1418,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>1800</c:v>
+                        <c:v>2400</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1792.8462</c:v>
+                        <c:v>2392.8462</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1788.7524</c:v>
+                        <c:v>2388.7524</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1788.4818</c:v>
+                        <c:v>2388.4818</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1789.8612</c:v>
+                        <c:v>2389.8612</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1817.7</c:v>
+                        <c:v>2417.7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1769,22 +1769,22 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>450</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>448.21155</c:v>
+                  <c:v>598.21155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>447.1881</c:v>
+                  <c:v>597.1881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>447.12045</c:v>
+                  <c:v>597.12045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>447.4653</c:v>
+                  <c:v>597.4653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>454.425</c:v>
+                  <c:v>604.425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,22 +1893,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>30000</c:v>
+                        <c:v>40000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>29880.77</c:v>
+                        <c:v>39880.77</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>29812.54</c:v>
+                        <c:v>39812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>29808.03</c:v>
+                        <c:v>39808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>29831.02</c:v>
+                        <c:v>39831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>30295</c:v>
+                        <c:v>40295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2004,22 +2004,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>1800</c:v>
+                        <c:v>2400</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1792.8462</c:v>
+                        <c:v>2392.8462</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1788.7524</c:v>
+                        <c:v>2388.7524</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1788.4818</c:v>
+                        <c:v>2388.4818</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1789.8612</c:v>
+                        <c:v>2389.8612</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1817.7</c:v>
+                        <c:v>2417.7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2343,22 +2343,22 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1800</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1792.8462</c:v>
+                  <c:v>2392.8462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1788.7524</c:v>
+                  <c:v>2388.7524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1788.4818</c:v>
+                  <c:v>2388.4818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1789.8612</c:v>
+                  <c:v>2389.8612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1817.7</c:v>
+                  <c:v>2417.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2467,22 +2467,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>30000</c:v>
+                        <c:v>40000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>29880.77</c:v>
+                        <c:v>39880.77</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>29812.54</c:v>
+                        <c:v>39812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>29808.03</c:v>
+                        <c:v>39808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>29831.02</c:v>
+                        <c:v>39831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>30295</c:v>
+                        <c:v>40295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2578,22 +2578,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>450</c:v>
+                        <c:v>600</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>448.21155</c:v>
+                        <c:v>598.21155</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>447.1881</c:v>
+                        <c:v>597.1881</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>447.12045</c:v>
+                        <c:v>597.12045</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>447.4653</c:v>
+                        <c:v>597.4653</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>454.425</c:v>
+                        <c:v>604.425</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5594,7 +5594,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -5628,15 +5628,15 @@
         <v>44489</v>
       </c>
       <c r="B2" s="6">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C2" s="7">
         <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.015)</f>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="D2" s="7">
         <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="14"/>
@@ -5649,15 +5649,15 @@
         <v>44496</v>
       </c>
       <c r="B3" s="9">
-        <v>29880.77</v>
+        <v>39880.77</v>
       </c>
       <c r="C3" s="7">
         <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.015)</f>
-        <v>448.21155</v>
+        <v>598.21155</v>
       </c>
       <c r="D3" s="7">
         <f>(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1792.8462</v>
+        <v>2392.8462</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="14"/>
@@ -5670,15 +5670,15 @@
         <v>44503</v>
       </c>
       <c r="B4" s="9">
-        <v>29812.54</v>
+        <v>39812.54</v>
       </c>
       <c r="C4" s="7">
         <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.015)</f>
-        <v>447.1881</v>
+        <v>597.1881</v>
       </c>
       <c r="D4" s="7">
         <f>(VLOOKUP(A4,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1788.7524</v>
+        <v>2388.7524</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="14"/>
@@ -5691,15 +5691,15 @@
         <v>44510</v>
       </c>
       <c r="B5" s="9">
-        <v>29808.03</v>
+        <v>39808.03</v>
       </c>
       <c r="C5" s="7">
         <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.015)</f>
-        <v>447.12045</v>
+        <v>597.12045</v>
       </c>
       <c r="D5" s="7">
         <f>(VLOOKUP(A5,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1788.4818</v>
+        <v>2388.4818</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="14"/>
@@ -5733,15 +5733,15 @@
         <v>44524</v>
       </c>
       <c r="B7" s="9">
-        <v>29831.02</v>
+        <v>39831.02</v>
       </c>
       <c r="C7" s="7">
         <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.015)</f>
-        <v>447.4653</v>
+        <v>597.4653</v>
       </c>
       <c r="D7" s="7">
         <f>(VLOOKUP(A7,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1789.8612</v>
+        <v>2389.8612</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="14"/>
@@ -5754,15 +5754,15 @@
         <v>44531</v>
       </c>
       <c r="B8" s="9">
-        <v>30295</v>
+        <v>40295</v>
       </c>
       <c r="C8" s="7">
         <f>(VLOOKUP(A8,$A$1:$D105,2,FALSE)*0.015)</f>
-        <v>454.425</v>
+        <v>604.425</v>
       </c>
       <c r="D8" s="7">
         <f>(VLOOKUP(A8,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>1817.7</v>
+        <v>2417.7</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="14"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -1307,22 +1307,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>600</c:v>
+                        <c:v>400</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>598.21155</c:v>
+                        <c:v>398.8077</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>597.1881</c:v>
+                        <c:v>398.1254</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>597.12045</c:v>
+                        <c:v>398.0803</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>597.4653</c:v>
+                        <c:v>398.3102</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>604.425</c:v>
+                        <c:v>402.95</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1769,22 +1769,22 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>598.21155</c:v>
+                  <c:v>398.8077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>597.1881</c:v>
+                  <c:v>398.1254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>597.12045</c:v>
+                  <c:v>398.0803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>597.4653</c:v>
+                  <c:v>398.3102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>604.425</c:v>
+                  <c:v>402.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2578,22 +2578,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>600</c:v>
+                        <c:v>400</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>598.21155</c:v>
+                        <c:v>398.8077</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>597.1881</c:v>
+                        <c:v>398.1254</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>597.12045</c:v>
+                        <c:v>398.0803</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>597.4653</c:v>
+                        <c:v>398.3102</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>604.425</c:v>
+                        <c:v>402.95</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5594,7 +5594,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -5631,8 +5631,8 @@
         <v>40000</v>
       </c>
       <c r="C2" s="7">
-        <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.015)</f>
-        <v>600</v>
+        <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.01)</f>
+        <v>400</v>
       </c>
       <c r="D2" s="7">
         <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
@@ -5652,11 +5652,11 @@
         <v>39880.77</v>
       </c>
       <c r="C3" s="7">
-        <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.015)</f>
-        <v>598.21155</v>
+        <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.01)</f>
+        <v>398.8077</v>
       </c>
       <c r="D3" s="7">
-        <f>(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <f t="shared" ref="D3:D8" si="0">(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>2392.8462</v>
       </c>
       <c r="E3" s="19"/>
@@ -5673,11 +5673,11 @@
         <v>39812.54</v>
       </c>
       <c r="C4" s="7">
-        <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.015)</f>
-        <v>597.1881</v>
+        <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.01)</f>
+        <v>398.1254</v>
       </c>
       <c r="D4" s="7">
-        <f>(VLOOKUP(A4,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <f t="shared" si="0"/>
         <v>2388.7524</v>
       </c>
       <c r="E4" s="19"/>
@@ -5694,11 +5694,11 @@
         <v>39808.03</v>
       </c>
       <c r="C5" s="7">
-        <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.015)</f>
-        <v>597.12045</v>
+        <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.01)</f>
+        <v>398.0803</v>
       </c>
       <c r="D5" s="7">
-        <f>(VLOOKUP(A5,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <f t="shared" si="0"/>
         <v>2388.4818</v>
       </c>
       <c r="E5" s="19"/>
@@ -5715,11 +5715,11 @@
         <v>0</v>
       </c>
       <c r="C6" s="7">
-        <f>(VLOOKUP(A6,$A$1:$D103,2,FALSE)*0.015)</f>
+        <f>(VLOOKUP(A6,$A$1:$D103,2,FALSE)*0.01)</f>
         <v>0</v>
       </c>
       <c r="D6" s="7">
-        <f>(VLOOKUP(A6,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="19"/>
@@ -5736,11 +5736,11 @@
         <v>39831.02</v>
       </c>
       <c r="C7" s="7">
-        <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.015)</f>
-        <v>597.4653</v>
+        <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.01)</f>
+        <v>398.3102</v>
       </c>
       <c r="D7" s="7">
-        <f>(VLOOKUP(A7,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <f t="shared" si="0"/>
         <v>2389.8612</v>
       </c>
       <c r="E7" s="19"/>
@@ -5757,11 +5757,11 @@
         <v>40295</v>
       </c>
       <c r="C8" s="7">
-        <f>(VLOOKUP(A8,$A$1:$D105,2,FALSE)*0.015)</f>
-        <v>604.425</v>
+        <f>(VLOOKUP(A8,$A$1:$D105,2,FALSE)*0.01)</f>
+        <v>402.95</v>
       </c>
       <c r="D8" s="7">
-        <f>(VLOOKUP(A8,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <f t="shared" si="0"/>
         <v>2417.7</v>
       </c>
       <c r="E8" s="19"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -5594,7 +5594,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -5594,7 +5594,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -5594,7 +5594,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -34,10 +34,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -62,6 +62,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -76,8 +85,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +115,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -99,16 +138,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,15 +178,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,22 +186,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,45 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,7 +240,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,13 +282,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,61 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,61 +378,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,13 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,8 +609,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,30 +650,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,16 +681,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,8 +698,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,148 +708,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5594,7 +5594,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -34,10 +34,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -62,6 +62,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -70,23 +77,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -102,59 +117,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,11 +131,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,6 +165,14 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,6 +193,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,7 +240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +252,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,37 +372,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,79 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,24 +421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,30 +616,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -650,6 +626,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +650,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,148 +708,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5594,7 +5594,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/资金曲线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="19940" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="账户管理" sheetId="1" r:id="rId1"/>
@@ -4462,15 +4462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:colOff>43180</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19685</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1128395</xdr:colOff>
+      <xdr:colOff>1127125</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>137795</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4478,7 +4478,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4695190" y="19685"/>
+        <a:off x="4693920" y="30480"/>
         <a:ext cx="4572000" cy="2444115"/>
       </xdr:xfrm>
       <a:graphic>
